--- a/Kanji_v2/Kanji800/gen/page9.xlsx
+++ b/Kanji_v2/Kanji800/gen/page9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\ReviewKanjiV3\gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Kanji_v2\Kanji800\gen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302B03B0-17F7-4717-837E-988D339E2517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D322C5B7-C600-4A96-A3C4-5E973C5891F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,9 +381,6 @@
     <t>chim</t>
   </si>
   <si>
-    <t>黃</t>
-  </si>
-  <si>
     <t>hoàng</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
   </si>
   <si>
     <t>địa chấn</t>
+  </si>
+  <si>
+    <t>黄</t>
   </si>
 </sst>
 </file>
@@ -1091,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,13 +1218,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
         <v>130</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>131</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,46 +1559,46 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
         <v>118</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>119</v>
-      </c>
-      <c r="D42" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>128</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
         <v>121</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>122</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
         <v>124</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>125</v>
-      </c>
-      <c r="D45" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
